--- a/AnAn.xlsx
+++ b/AnAn.xlsx
@@ -307,14 +307,14 @@
         <v>4</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s" s="0">
         <v>16</v>
@@ -332,14 +332,14 @@
         <v>4</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s" s="0">
         <v>16</v>
@@ -924,14 +924,14 @@
         <v>4</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E59" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F59" s="0"/>
       <c r="G59" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s" s="0">
         <v>16</v>
@@ -949,14 +949,14 @@
         <v>4</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F60" s="0"/>
       <c r="G60" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H60" t="s" s="0">
         <v>16</v>

--- a/AnAn.xlsx
+++ b/AnAn.xlsx
@@ -44,6 +44,9 @@
     <t>15:45</t>
   </si>
   <si>
+    <t>mardi</t>
+  </si>
+  <si>
     <t>jeudi</t>
   </si>
   <si>
@@ -60,9 +63,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>mardi</t>
   </si>
   <si>
     <t>SI - TP (KRTX9AA2) (AnAn)</t>
@@ -200,7 +200,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>45911.0</v>
+        <v>45909.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>10</v>
@@ -208,281 +208,281 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="1">
+        <v>45911.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F6" s="0"/>
-      <c r="G6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I6" s="0"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="0"/>
-      <c r="G7" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>38.0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I8" s="0"/>
     </row>
     <row r="9">
-      <c r="A9" t="n" s="1">
-        <v>45915.0</v>
+      <c r="A9" t="s" s="0">
+        <v>12</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="1">
+        <v>45915.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E10" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="0"/>
-      <c r="G10" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I10" s="0"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E11" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F11" s="0"/>
-      <c r="G11" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I11" s="0"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="1">
-        <v>45916.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="E12" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="H12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" s="0"/>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>17</v>
+      <c r="A14" t="n" s="1">
+        <v>45916.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E14" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F14" s="0"/>
-      <c r="G14" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I14" s="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n" s="0">
-        <v>39.0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="0"/>
+      <c r="G15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I15" s="0"/>
     </row>
     <row r="16">
-      <c r="A16" t="n" s="1">
-        <v>45923.0</v>
+      <c r="A16" t="s" s="0">
+        <v>17</v>
       </c>
       <c r="B16" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="0"/>
+      <c r="G16" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="H16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E17" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F17" s="0"/>
-      <c r="G17" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="1">
+        <v>45923.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="E19" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F19" s="0"/>
+      <c r="G19" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="I17" s="0"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E18" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F18" s="0"/>
-      <c r="G18" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I18" s="0"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="1">
-        <v>45924.0</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>18</v>
-      </c>
+      <c r="H19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
+      <c r="G20" t="s" s="0">
+        <v>16</v>
+      </c>
       <c r="H20" t="s" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" t="n" s="1">
-        <v>45925.0</v>
+        <v>45924.0</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -510,18 +510,18 @@
     </row>
     <row r="23">
       <c r="A23" t="n" s="1">
-        <v>45926.0</v>
+        <v>45925.0</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>4</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>8</v>
@@ -573,16 +573,16 @@
       </c>
       <c r="F27" s="0"/>
       <c r="G27" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>8</v>
@@ -598,10 +598,10 @@
       </c>
       <c r="F28" s="0"/>
       <c r="G28" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" s="0"/>
     </row>
@@ -618,7 +618,7 @@
         <v>45944.0</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -632,17 +632,17 @@
         <v>4</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F31" s="0"/>
       <c r="G31" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" s="0"/>
     </row>
@@ -657,17 +657,17 @@
         <v>4</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F32" s="0"/>
       <c r="G32" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" s="0"/>
     </row>
@@ -676,12 +676,12 @@
         <v>45946.0</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>8</v>
@@ -697,16 +697,16 @@
       </c>
       <c r="F34" s="0"/>
       <c r="G34" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>8</v>
@@ -722,10 +722,10 @@
       </c>
       <c r="F35" s="0"/>
       <c r="G35" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" s="0"/>
     </row>
@@ -742,7 +742,7 @@
         <v>45951.0</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -763,10 +763,10 @@
       </c>
       <c r="F38" s="0"/>
       <c r="G38" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" s="0"/>
     </row>
@@ -788,10 +788,10 @@
       </c>
       <c r="F39" s="0"/>
       <c r="G39" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" s="0"/>
     </row>
@@ -845,17 +845,17 @@
         <v>4</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F43" s="0"/>
       <c r="G43" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" s="0"/>
     </row>
@@ -864,12 +864,12 @@
         <v>45958.0</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>8</v>
@@ -885,16 +885,16 @@
       </c>
       <c r="F45" s="0"/>
       <c r="G45" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>8</v>
@@ -910,10 +910,10 @@
       </c>
       <c r="F46" s="0"/>
       <c r="G46" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" s="0"/>
     </row>
@@ -922,7 +922,7 @@
         <v>45960.0</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -936,17 +936,17 @@
         <v>4</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F48" s="0"/>
       <c r="G48" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" s="0"/>
     </row>
@@ -963,7 +963,7 @@
         <v>45974.0</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -1002,7 +1002,7 @@
         <v>45981.0</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">

--- a/AnAn.xlsx
+++ b/AnAn.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="36">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,6 +32,9 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>U3-110</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
@@ -53,7 +56,10 @@
     <t>ESE - TP (KRTX9AC1) (AnAn)</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>U3-307</t>
   </si>
   <si>
     <t>1</t>
@@ -62,28 +68,58 @@
     <t>TYPE_TP</t>
   </si>
   <si>
+    <t>U3-308</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>7:45</t>
+  </si>
+  <si>
+    <t>U3-203</t>
+  </si>
+  <si>
+    <t>U3-204</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>U3-109</t>
+  </si>
+  <si>
     <t>SI - TP (KRTX9AA2) (AnAn)</t>
   </si>
   <si>
-    <t>mercredi</t>
+    <t>U3-215</t>
+  </si>
+  <si>
+    <t>U3-216</t>
+  </si>
+  <si>
+    <t>U3-4</t>
   </si>
   <si>
     <t>vendredi</t>
   </si>
   <si>
+    <t>U3-201</t>
+  </si>
+  <si>
+    <t>U3-202</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
+  </si>
+  <si>
+    <t>SI (KRTX9AA2)</t>
+  </si>
+  <si>
+    <t>TYPE_CONTROLE</t>
+  </si>
+  <si>
     <t>ESE (KRTX9AC1)</t>
-  </si>
-  <si>
-    <t>TYPE_CONTROLE</t>
-  </si>
-  <si>
-    <t>SI (KRTX9AA2)</t>
-  </si>
-  <si>
-    <t>10:0</t>
   </si>
 </sst>
 </file>
@@ -130,7 +166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -168,33 +204,37 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F4" s="0"/>
+      <c r="F4" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G4" s="0"/>
       <c r="H4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="0"/>
     </row>
@@ -203,15 +243,15 @@
         <v>45909.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>4</v>
@@ -222,10 +262,12 @@
       <c r="E6" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G6" s="0"/>
       <c r="H6" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="0"/>
     </row>
@@ -234,56 +276,60 @@
         <v>45911.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F8" s="0"/>
+      <c r="F8" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="G8" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F9" s="0"/>
+      <c r="F9" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G9" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I9" s="0"/>
     </row>
@@ -292,236 +338,267 @@
         <v>0</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="1">
-        <v>45915.0</v>
+        <v>45923.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F12" s="0"/>
+      <c r="F12" t="s" s="0">
+        <v>21</v>
+      </c>
       <c r="G12" t="s" s="0">
         <v>16</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E13" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F13" s="0"/>
-      <c r="G13" t="s" s="0">
+      <c r="B14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H13" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I13" s="0"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="1">
-        <v>45916.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>10</v>
-      </c>
+      <c r="E14" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F15" s="0"/>
+      <c r="F15" t="s" s="0">
+        <v>22</v>
+      </c>
       <c r="G15" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I15" s="0"/>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>17</v>
+      <c r="A16" t="n" s="1">
+        <v>45924.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E16" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F16" s="0"/>
-      <c r="G16" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I16" s="0"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n" s="0">
-        <v>39.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G17" s="0"/>
+      <c r="H17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="n" s="1">
-        <v>45923.0</v>
+        <v>45925.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F19" s="0"/>
+      <c r="F19" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="G19" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F20" s="0"/>
+      <c r="F20" t="s" s="0">
+        <v>27</v>
+      </c>
       <c r="G20" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I20" s="0"/>
     </row>
     <row r="21">
-      <c r="A21" t="n" s="1">
-        <v>45924.0</v>
+      <c r="A21" t="s" s="0">
+        <v>2</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>18</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G21" s="0"/>
+      <c r="H21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E22" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="I22" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>41.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="1">
-        <v>45925.0</v>
+        <v>45940.0</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>4</v>
@@ -532,247 +609,265 @@
       <c r="E24" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
+      <c r="F24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>16</v>
+      </c>
       <c r="H24" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B25" t="n" s="0">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="1">
-        <v>45940.0</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>19</v>
+      <c r="B26" t="n" s="0">
+        <v>42.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>12</v>
+      <c r="A27" t="n" s="1">
+        <v>45944.0</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E27" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F27" s="0"/>
-      <c r="G27" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H27" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I27" s="0"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E28" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F28" s="0"/>
+      <c r="F28" t="s" s="0">
+        <v>30</v>
+      </c>
       <c r="G28" t="s" s="0">
         <v>16</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B29" t="n" s="0">
-        <v>42.0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" t="n" s="1">
-        <v>45944.0</v>
+        <v>45946.0</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F31" s="0"/>
+      <c r="F31" t="s" s="0">
+        <v>27</v>
+      </c>
       <c r="G31" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F32" s="0"/>
+      <c r="F32" t="s" s="0">
+        <v>27</v>
+      </c>
       <c r="G32" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I32" s="0"/>
     </row>
     <row r="33">
-      <c r="A33" t="n" s="1">
-        <v>45946.0</v>
-      </c>
-      <c r="B33" t="s" s="0">
+      <c r="A33" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="1">
+        <v>45951.0</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>11</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E34" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F34" s="0"/>
-      <c r="G34" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H34" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F35" s="0"/>
+      <c r="F35" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="G35" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B36" t="n" s="0">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n" s="1">
-        <v>45951.0</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>10</v>
+      <c r="B37" t="n" s="0">
+        <v>44.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>17</v>
+      <c r="A38" t="n" s="1">
+        <v>45957.0</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E38" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F38" s="0"/>
-      <c r="G38" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I38" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>3</v>
@@ -781,42 +876,61 @@
         <v>4</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F39" s="0"/>
-      <c r="G39" t="s" s="0">
-        <v>14</v>
-      </c>
+      <c r="F39" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G39" s="0"/>
       <c r="H39" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B40" t="n" s="0">
-        <v>44.0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" t="n" s="1">
-        <v>45957.0</v>
+        <v>45958.0</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>4</v>
@@ -827,268 +941,226 @@
       <c r="E42" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
+      <c r="F42" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>16</v>
+      </c>
       <c r="H42" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F43" s="0"/>
+      <c r="F43" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="G43" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" t="n" s="1">
-        <v>45958.0</v>
+        <v>45960.0</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E45" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F45" s="0"/>
+      <c r="F45" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="G45" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D46" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E46" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F46" s="0"/>
-      <c r="G46" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H46" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I46" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>46.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="1">
-        <v>45960.0</v>
+        <v>45974.0</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E48" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F48" s="0"/>
-      <c r="G48" t="s" s="0">
-        <v>16</v>
-      </c>
+      <c r="F48" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G48" s="0"/>
       <c r="H48" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I48" s="0"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G49" s="0"/>
+      <c r="H49" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I49" s="0"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B49" t="n" s="0">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="1">
-        <v>45974.0</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>11</v>
+      <c r="B50" t="n" s="0">
+        <v>47.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="0">
-        <v>20</v>
+      <c r="A51" t="n" s="1">
+        <v>45981.0</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D51" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E51" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0"/>
-      <c r="H51" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I51" s="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E52" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G52" s="0"/>
+      <c r="H52" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I52" s="0"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B52" t="n" s="0">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="1">
-        <v>45981.0</v>
-      </c>
-      <c r="B53" t="s" s="0">
-        <v>11</v>
+      <c r="B53" t="n" s="0">
+        <v>50.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>22</v>
+      <c r="A54" t="n" s="1">
+        <v>46003.0</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D54" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E54" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0"/>
-      <c r="H54" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I54" s="0"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B55" t="n" s="0">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="1">
-        <v>46003.0</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D57" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="E57" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F57" s="0"/>
-      <c r="G57" s="0"/>
-      <c r="H57" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="I57" s="0"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E58" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
-      <c r="H58" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="I58" s="0"/>
+      <c r="E55" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G55" s="0"/>
+      <c r="H55" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I55" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/AnAn.xlsx
+++ b/AnAn.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t xml:space="preserve">CPO  (KINX6AA1) </t>
@@ -92,7 +92,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44947.0</v>
+        <v>46043.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
